--- a/database/data.xlsx
+++ b/database/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\WEBDEV P\Final-Dramaku\dramaku\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 5\WEBDEV P\Webdev-Dramaku\Webdev-Praktikum\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF411D-B771-4CF9-8734-C71ED1BF633B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105765B-509F-4634-BFCE-315F930A6608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="9" activeTab="4" xr2:uid="{2A2584A7-F2BE-49FC-BBDC-1FBDC6E47239}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6202" uniqueCount="2752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6215" uniqueCount="2758">
   <si>
     <t>country_id</t>
   </si>
@@ -8335,6 +8335,24 @@
   </si>
   <si>
     <t>is_suspended</t>
+  </si>
+  <si>
+    <t>is_verified</t>
+  </si>
+  <si>
+    <t>verification_token</t>
+  </si>
+  <si>
+    <t>verification_token_expiration</t>
+  </si>
+  <si>
+    <t>reset_password_token</t>
+  </si>
+  <si>
+    <t>reset_token_expiration</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -8390,7 +8408,22 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
     </dxf>
@@ -8601,11 +8634,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A66AFDC-0376-42F7-B9AE-5A5E7B5E4F62}" name="countries" displayName="countries" ref="A1:E5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:E5" xr:uid="{5A66AFDC-0376-42F7-B9AE-5A5E7B5E4F62}"/>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{37C506B1-DFB4-4B79-8861-7624723870D9}" uniqueName="3" name="country_id" queryTableFieldId="3" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{97FCD6A1-DD01-4642-9751-A0080E8ED6F5}" uniqueName="4" name="country_name" queryTableFieldId="4" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{9DC026FB-373A-4B67-A700-412767CD8C46}" uniqueName="5" name="flag_url" queryTableFieldId="5" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{E1E0A0AE-088F-419F-A11D-2F8C61B685B7}" uniqueName="6" name="created_at" queryTableFieldId="6" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{1437C6A0-B878-48C5-BEFF-5C43E51F9FC2}" uniqueName="7" name="updated_at" queryTableFieldId="7" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{37C506B1-DFB4-4B79-8861-7624723870D9}" uniqueName="3" name="country_id" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{97FCD6A1-DD01-4642-9751-A0080E8ED6F5}" uniqueName="4" name="country_name" queryTableFieldId="4" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{9DC026FB-373A-4B67-A700-412767CD8C46}" uniqueName="5" name="flag_url" queryTableFieldId="5" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{E1E0A0AE-088F-419F-A11D-2F8C61B685B7}" uniqueName="6" name="created_at" queryTableFieldId="6" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{1437C6A0-B878-48C5-BEFF-5C43E51F9FC2}" uniqueName="7" name="updated_at" queryTableFieldId="7" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8641,8 +8674,8 @@
     <tableColumn id="2" xr3:uid="{C16FFE37-DDE7-4A63-9AE8-726CB2B7B30D}" name="comment_rate"/>
     <tableColumn id="3" xr3:uid="{B8C3C18E-0739-4679-A57A-8048321E8211}" name="detail_comment"/>
     <tableColumn id="4" xr3:uid="{AF483E12-C41B-446D-8A25-3D6A51F5CDCB}" name="approvalstatus"/>
-    <tableColumn id="5" xr3:uid="{77EA76DB-6C68-445B-A68C-168D2B4BB69C}" name="created_time" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FB08EC20-F287-4F6F-924A-0F41ED80AB1C}" name="updated_at" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{77EA76DB-6C68-445B-A68C-168D2B4BB69C}" name="created_time" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{FB08EC20-F287-4F6F-924A-0F41ED80AB1C}" name="updated_at" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{E02AAA0A-45BE-43A0-A4F8-92916F01CFB8}" name="user_id"/>
     <tableColumn id="8" xr3:uid="{AFB3766B-2DA7-476C-BBDA-48C66F7E427A}" name="movie_id"/>
   </tableColumns>
@@ -8666,9 +8699,9 @@
   <autoFilter ref="A1:D20" xr:uid="{168F309E-0D90-4EAB-B5F9-5540695AAF8D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6E2379BA-8744-4437-9440-833C135CEF2C}" uniqueName="1" name="genre_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{067FD387-80BC-438E-9AB6-239058E5BB0B}" uniqueName="2" name="genre_name" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0DF499A5-3B6B-4BCD-BEA7-1E3C91D5BDAF}" uniqueName="3" name="created_at" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{A63ADE4A-1664-4685-989F-F30776176D7E}" uniqueName="4" name="updated_at" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{067FD387-80BC-438E-9AB6-239058E5BB0B}" uniqueName="2" name="genre_name" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{0DF499A5-3B6B-4BCD-BEA7-1E3C91D5BDAF}" uniqueName="3" name="created_at" queryTableFieldId="3" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{A63ADE4A-1664-4685-989F-F30776176D7E}" uniqueName="4" name="updated_at" queryTableFieldId="4" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8682,8 +8715,8 @@
     <tableColumn id="2" xr3:uid="{EF3697B7-131C-4FA4-9C7E-526CCABEB3E2}" name="award_name"/>
     <tableColumn id="3" xr3:uid="{871045E0-CA18-4998-9B4D-EFF2ACBA8F06}" name="year"/>
     <tableColumn id="4" xr3:uid="{E6D3962B-3FB0-48BC-89BD-ED5D7D6BDFD0}" name="country_id"/>
-    <tableColumn id="5" xr3:uid="{708C882B-DB16-4C7D-BE75-80BBF243AEF9}" name="created_at" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{2CD00B8F-69D9-4610-9C09-DF18613D55CC}" name="updated_at" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{708C882B-DB16-4C7D-BE75-80BBF243AEF9}" name="created_at" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{2CD00B8F-69D9-4610-9C09-DF18613D55CC}" name="updated_at" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8695,26 +8728,31 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{96F96E73-500F-4C17-8022-380019C98F81}" name="platform_id"/>
     <tableColumn id="2" xr3:uid="{4AFAEFAA-70E8-452A-A67F-08297F6DC968}" name="platform_name"/>
-    <tableColumn id="3" xr3:uid="{7DE695CE-446A-4244-9E58-93EDC3E9A21A}" name="created_at" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{CD5D724D-6377-450C-83C2-C6699EEB9CE3}" name="updated_at" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{7DE695CE-446A-4244-9E58-93EDC3E9A21A}" name="created_at" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{CD5D724D-6377-450C-83C2-C6699EEB9CE3}" name="updated_at" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BD03AD76-71B4-4638-98B1-965D831BDFC8}" name="Table9" displayName="Table9" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{BD03AD76-71B4-4638-98B1-965D831BDFC8}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BD03AD76-71B4-4638-98B1-965D831BDFC8}" name="Table9" displayName="Table9" ref="A1:N3" totalsRowShown="0">
+  <autoFilter ref="A1:N3" xr:uid="{BD03AD76-71B4-4638-98B1-965D831BDFC8}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FAA3077C-1247-49B4-A29C-6D204EF0082E}" name="user_id"/>
     <tableColumn id="2" xr3:uid="{33A967EC-B6CF-446C-B5AB-67DB9DE19F14}" name="username"/>
     <tableColumn id="3" xr3:uid="{94BF3C3B-A01A-49D5-8DB8-B4503F6F6918}" name="email" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{FCE7FDE3-3A48-4E18-B472-16F02FCAB66B}" name="password"/>
     <tableColumn id="5" xr3:uid="{0E4CE32A-95C4-46F0-8DCE-AE9C5771FD60}" name="role"/>
     <tableColumn id="6" xr3:uid="{C1EC2B13-7BA9-4356-BE6D-09763C11C1E6}" name="foto_profil_url"/>
-    <tableColumn id="7" xr3:uid="{698431F3-02BC-4630-ACF9-55C9ADFA814A}" name="created_at" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{459F08DB-886F-4F26-B8B5-A29623DC6F45}" name="updated_at" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{314BB339-170E-4A1C-A1AA-F9FB9CD23A91}" name="is_suspended" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{698431F3-02BC-4630-ACF9-55C9ADFA814A}" name="created_at" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{459F08DB-886F-4F26-B8B5-A29623DC6F45}" name="updated_at" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{314BB339-170E-4A1C-A1AA-F9FB9CD23A91}" name="is_suspended" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{17DDE8C7-9A30-47DB-BF97-809D3E2DAA5C}" name="is_verified" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{A0CB9557-A99A-43CD-BDDE-2E3219AA2FDF}" name="verification_token" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A7C84143-477E-43B1-880B-39C3F58148EC}" name="verification_token_expiration" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{FA1D9CAB-F380-4F96-B14E-333CD0A48E0A}" name="reset_password_token" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{BA570725-A094-45E4-B372-B12DE08B2B79}" name="reset_token_expiration" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8725,20 +8763,20 @@
   <autoFilter ref="A1:O73" xr:uid="{CDB85767-CD2C-46D0-9696-7D0C847DFDB1}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{632AFA37-5874-4E0C-9378-E08A39A2C5CE}" uniqueName="1" name="movie_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{732B82CE-AB06-424E-B8CF-D9A6DB1E8F84}" uniqueName="2" name="poster_url" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{62400202-18CE-40E7-96C6-A1B0BDBC40C3}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{4D015814-2592-428E-9260-8CC4ED2F5217}" uniqueName="4" name="alternative_title" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{0073340F-8ECC-4A36-82AA-0A2E138BBDFB}" uniqueName="11" name="movie_rate" queryTableFieldId="11" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{F19C94CF-3739-4A4F-A016-146723CFDF35}" uniqueName="10" name="views" queryTableFieldId="10" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{732B82CE-AB06-424E-B8CF-D9A6DB1E8F84}" uniqueName="2" name="poster_url" queryTableFieldId="2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{62400202-18CE-40E7-96C6-A1B0BDBC40C3}" uniqueName="3" name="title" queryTableFieldId="3" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4D015814-2592-428E-9260-8CC4ED2F5217}" uniqueName="4" name="alternative_title" queryTableFieldId="4" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{0073340F-8ECC-4A36-82AA-0A2E138BBDFB}" uniqueName="11" name="movie_rate" queryTableFieldId="11" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{F19C94CF-3739-4A4F-A016-146723CFDF35}" uniqueName="10" name="views" queryTableFieldId="10" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{A701E8B7-E657-4652-A449-6F51E4E7AC07}" uniqueName="5" name="year" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{3EFB9C2E-446D-4A4A-A034-03F13562E568}" uniqueName="6" name="synopsis" queryTableFieldId="6" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{62AF5B23-80EE-436D-8954-3200197CB74E}" uniqueName="7" name="release_status" queryTableFieldId="7" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{0011E958-4B99-4CF2-BDF2-E26D850A929B}" uniqueName="12" name="approval_status" queryTableFieldId="12" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E17EFA51-7DA6-4B34-AFE7-3EBB5D79FF53}" uniqueName="8" name="link_trailer" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{E53A23E4-E7A4-48C1-A925-A5237AB8AEFE}" uniqueName="9" name="country_id" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{934B51DA-2D8B-4C56-9786-C0D1D38D5719}" uniqueName="13" name="user_id" queryTableFieldId="13" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{CE125523-56A7-428D-9177-9BA4EB41147A}" uniqueName="14" name="created_at" queryTableFieldId="14" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00D1E1E5-46B6-49F0-B748-03ECF1DF6967}" uniqueName="15" name="updated_at" queryTableFieldId="15" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3EFB9C2E-446D-4A4A-A034-03F13562E568}" uniqueName="6" name="synopsis" queryTableFieldId="6" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{62AF5B23-80EE-436D-8954-3200197CB74E}" uniqueName="7" name="release_status" queryTableFieldId="7" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{0011E958-4B99-4CF2-BDF2-E26D850A929B}" uniqueName="12" name="approval_status" queryTableFieldId="12" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{E17EFA51-7DA6-4B34-AFE7-3EBB5D79FF53}" uniqueName="8" name="link_trailer" queryTableFieldId="8" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{E53A23E4-E7A4-48C1-A925-A5237AB8AEFE}" uniqueName="9" name="country_id" queryTableFieldId="9" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{934B51DA-2D8B-4C56-9786-C0D1D38D5719}" uniqueName="13" name="user_id" queryTableFieldId="13" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{CE125523-56A7-428D-9177-9BA4EB41147A}" uniqueName="14" name="created_at" queryTableFieldId="14" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00D1E1E5-46B6-49F0-B748-03ECF1DF6967}" uniqueName="15" name="updated_at" queryTableFieldId="15" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8749,11 +8787,11 @@
   <autoFilter ref="A1:F1290" xr:uid="{8D416062-40FB-446E-8601-0AB05101375E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2D199870-FA1F-464E-AACD-5C053FCBBD46}" uniqueName="1" name="actor_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{B8D1186B-DBA0-4FF4-92A6-A81B54BBF0B9}" uniqueName="2" name="actor_name" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{386404B2-5885-4B42-BF11-4F4692B3D4D5}" uniqueName="3" name="birth_date" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{BF87F027-9B25-486F-B2CF-8DC16CB172A4}" uniqueName="4" name="foto_url" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{54668B2A-A1EA-4761-B477-D29DF7FBCC52}" uniqueName="5" name="created_at" queryTableFieldId="5" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{5F77A5F0-A2D8-4005-8853-6E6BA4662532}" uniqueName="6" name="updated_at" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8D1186B-DBA0-4FF4-92A6-A81B54BBF0B9}" uniqueName="2" name="actor_name" queryTableFieldId="2" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{386404B2-5885-4B42-BF11-4F4692B3D4D5}" uniqueName="3" name="birth_date" queryTableFieldId="3" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BF87F027-9B25-486F-B2CF-8DC16CB172A4}" uniqueName="4" name="foto_url" queryTableFieldId="4" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{54668B2A-A1EA-4761-B477-D29DF7FBCC52}" uniqueName="5" name="created_at" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{5F77A5F0-A2D8-4005-8853-6E6BA4662532}" uniqueName="6" name="updated_at" queryTableFieldId="6" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12433,10 +12471,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A7FF34-6326-429B-AEE6-153AEA6A0A76}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12452,9 +12490,10 @@
     <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2369</v>
       </c>
@@ -12482,8 +12521,23 @@
       <c r="I1" t="s">
         <v>2751</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -12511,8 +12565,23 @@
       <c r="I2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -12539,6 +12608,21 @@
       </c>
       <c r="I3" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>2757</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>2757</v>
       </c>
     </row>
   </sheetData>
